--- a/translation_documents/SLIPPS_SURVEY_BASE_v1.0.0_LANG.xlsx
+++ b/translation_documents/SLIPPS_SURVEY_BASE_v1.0.0_LANG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Summer job backup\DOCUMENTATION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_bash\summer_job_2017\DECSV\translation_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4AD238EA-0C5B-4540-9140-30BC4F187351}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A0413D6-4979-4739-9AA2-D56E6F3E96FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="9750" xr2:uid="{BE5CE380-D293-4E72-94BA-A44F9B356BD0}"/>
   </bookViews>
@@ -36,13 +36,7 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>SLIPPS Survey</t>
-  </si>
-  <si>
     <t>Recording important patient safety learning events</t>
-  </si>
-  <si>
-    <t>You will remain anonymous and details of you name/school/university will not be collected.</t>
   </si>
   <si>
     <t>Section A</t>
@@ -443,6 +437,12 @@
 After you have filled in translations, save this file, and replace [LANG] in the file's name with language used in translations.
 EXAMPLE: [LANG] -&gt; [SPANISH]
 After this, send this file back to SLIPPS team.</t>
+  </si>
+  <si>
+    <t>SLIPPS Learning Event Recording Tool</t>
+  </si>
+  <si>
+    <t>You will remain anonymous and details of your name/school/university will not be collected.</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
   <dimension ref="B4:N150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
   <sheetData>
     <row r="4" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="8"/>
     </row>
@@ -989,23 +989,23 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:14" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1017,33 +1017,33 @@
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="7"/>
     </row>
@@ -1057,61 +1057,61 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7"/>
     </row>
@@ -1125,61 +1125,61 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7"/>
     </row>
@@ -1193,121 +1193,121 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C57" s="7"/>
     </row>
@@ -1321,43 +1321,43 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C65" s="7"/>
     </row>
@@ -1371,43 +1371,43 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B70" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="2:3" ht="120" x14ac:dyDescent="0.25">
-      <c r="B71" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" s="7"/>
     </row>
@@ -1421,109 +1421,109 @@
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C81" s="3"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C85" s="3"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C86" s="3"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C87" s="3"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C92" s="3"/>
     </row>
@@ -1533,79 +1533,79 @@
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C106" s="3"/>
     </row>
@@ -1615,109 +1615,109 @@
     </row>
     <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C120" s="3"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C125" s="3"/>
     </row>
@@ -1727,91 +1727,91 @@
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B139" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C141" s="3"/>
     </row>
@@ -1821,25 +1821,25 @@
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C146" s="3"/>
     </row>
@@ -1849,19 +1849,19 @@
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C150" s="3"/>
     </row>

--- a/translation_documents/SLIPPS_SURVEY_BASE_v1.0.0_LANG.xlsx
+++ b/translation_documents/SLIPPS_SURVEY_BASE_v1.0.0_LANG.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_bash\summer_job_2017\DECSV\translation_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A0413D6-4979-4739-9AA2-D56E6F3E96FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCAC51CF-1B87-4CD8-AC09-005420521577}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="9750" xr2:uid="{BE5CE380-D293-4E72-94BA-A44F9B356BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.0.0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
-  <si>
-    <t>Introduction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="142">
   <si>
     <t>TRANSLATION</t>
   </si>
@@ -144,9 +141,6 @@
     <t>Your gender</t>
   </si>
   <si>
-    <t>Year in program</t>
-  </si>
-  <si>
     <t>The type of clinical/work placement the event happened in</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
   </si>
   <si>
     <t>Midwifery</t>
-  </si>
-  <si>
-    <t>Nursing (Adult)</t>
   </si>
   <si>
     <t>Nursing (Child/paediatrics)</t>
@@ -443,6 +434,55 @@
   </si>
   <si>
     <t>You will remain anonymous and details of your name/school/university will not be collected.</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Year in profession/study program (approximately when the event happened)</t>
+  </si>
+  <si>
+    <t>Introduction (For Students)</t>
+  </si>
+  <si>
+    <t>Introduction (General Information)</t>
+  </si>
+  <si>
+    <t>Information about the project on Patient safety learning experiences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reflecting on important patient safety learning events from your practice placements (in some countries these may be called practicums or practice / work experience) can help you to understand your own experiences and learn from events. </t>
+  </si>
+  <si>
+    <t>Through the following website you may now or in the future also find opportunities to compare your events with other healthcare and /or social students’ experiences (www.SLIPPS.EU).</t>
+  </si>
+  <si>
+    <t>The SLIPPS project has obtained ethical approval via your education institution for further information see (link to document)</t>
+  </si>
+  <si>
+    <t>The data (descriptions and reflections on important patient safety learning events) will be used to:
+  • develop freely available educational resources; 
+  • in national and international research; 
+  • in presentations and publications; 
+  • to assist health care organizations and education institutions in improving patient safety education, processes and systems.</t>
+  </si>
+  <si>
+    <t>The international patient safety education and research network (IPSERN) began in 2016 with Sharing Learning from Practice to Improve Patient Safety (SLIPPS), a 3-year project co-funded by the Erasmus+ Programme of the European Union. SLIPPS is led by Northumbria University UK in collaboration with Finland, Spain, Italy and Norway.</t>
+  </si>
+  <si>
+    <t>If you would like any further information please contact:  https://www.slipps.eu/contact-us/</t>
+  </si>
+  <si>
+    <t>Additional Survey Translations</t>
+  </si>
+  <si>
+    <t>Additional question (if tick no): If not, why not?</t>
+  </si>
+  <si>
+    <t>Other, what __________?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other, please describe using a few words </t>
   </si>
 </sst>
 </file>
@@ -951,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1144370-6039-42CC-95C2-93E16BE380EE}">
-  <dimension ref="B4:N150"/>
+  <dimension ref="B4:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,43 +1009,43 @@
   <sheetData>
     <row r="4" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:14" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1019,863 +1059,943 @@
     </row>
     <row r="10" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" ht="165" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" s="7"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="3"/>
+    <row r="81" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B81" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="3"/>
+    <row r="86" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B86" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="3"/>
+      <c r="B87" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C88" s="3"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="B93" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" s="3"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-    </row>
-    <row r="108" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+    </row>
+    <row r="121" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C121" s="3"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
+      <c r="B126" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C139" s="3"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="B142" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
+      <c r="B147" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C150" s="3"/>
     </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C152" s="3"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C154" s="3"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C158" s="3"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C159" s="3"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C161" s="3"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C162" s="3"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C163" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B81:C81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/translation_documents/SLIPPS_SURVEY_BASE_v1.0.0_LANG.xlsx
+++ b/translation_documents/SLIPPS_SURVEY_BASE_v1.0.0_LANG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_bash\summer_job_2017\DECSV\translation_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCAC51CF-1B87-4CD8-AC09-005420521577}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18AF7269-CED9-433B-82A5-8E056EFC94DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="9750" xr2:uid="{BE5CE380-D293-4E72-94BA-A44F9B356BD0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>TRANSLATION</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t xml:space="preserve">Other, please describe using a few words </t>
+  </si>
+  <si>
+    <t>Additional data. Please tell us:</t>
   </si>
 </sst>
 </file>
@@ -993,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1144370-6039-42CC-95C2-93E16BE380EE}">
   <dimension ref="B4:N163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1522,7 @@
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="C85" s="3"/>
     </row>

--- a/translation_documents/SLIPPS_SURVEY_BASE_v1.0.0_LANG.xlsx
+++ b/translation_documents/SLIPPS_SURVEY_BASE_v1.0.0_LANG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_bash\summer_job_2017\DECSV\translation_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{18AF7269-CED9-433B-82A5-8E056EFC94DA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E3FD615-0E38-4B47-BBBC-01776C114EA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="9750" xr2:uid="{BE5CE380-D293-4E72-94BA-A44F9B356BD0}"/>
   </bookViews>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t>TRANSLATION</t>
   </si>
   <si>
     <t>ORIGINAL</t>
-  </si>
-  <si>
-    <t>Recording important patient safety learning events</t>
   </si>
   <si>
     <t>Section A</t>
@@ -486,6 +483,12 @@
   </si>
   <si>
     <t>Additional data. Please tell us:</t>
+  </si>
+  <si>
+    <t>Instructions for students: Recording important patient safety learning events</t>
+  </si>
+  <si>
+    <t>Important Patient Safety learning event recording form</t>
   </si>
 </sst>
 </file>
@@ -994,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1144370-6039-42CC-95C2-93E16BE380EE}">
-  <dimension ref="B4:N163"/>
+  <dimension ref="B4:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,13 +1015,13 @@
   <sheetData>
     <row r="4" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -1032,23 +1035,23 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:14" ht="186.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -1062,31 +1065,31 @@
     </row>
     <row r="10" spans="2:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="7"/>
     </row>
@@ -1100,61 +1103,61 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" ht="165" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="7"/>
     </row>
@@ -1168,61 +1171,61 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="7"/>
     </row>
@@ -1236,121 +1239,121 @@
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="3"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="3"/>
     </row>
     <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" s="3"/>
     </row>
     <row r="54" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" s="3"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="7"/>
     </row>
@@ -1364,43 +1367,43 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C60" s="3"/>
     </row>
     <row r="61" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" s="3"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" s="3"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" s="3"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" s="3"/>
     </row>
     <row r="65" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="7"/>
     </row>
@@ -1414,583 +1417,589 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C67" s="3"/>
     </row>
     <row r="68" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C68" s="3"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69" s="3"/>
     </row>
     <row r="70" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C70" s="3"/>
     </row>
     <row r="71" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C71" s="3"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="3"/>
     </row>
     <row r="73" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" s="3"/>
     </row>
     <row r="75" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="3"/>
     </row>
     <row r="76" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C77" s="3"/>
     </row>
     <row r="78" spans="2:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="3"/>
     </row>
     <row r="79" spans="2:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="3"/>
     </row>
     <row r="80" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="3"/>
     </row>
     <row r="81" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C81" s="7"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="3"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C83" s="3"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C84" s="3"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B86" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B87" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C89" s="3"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C90" s="3"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C92" s="3"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C97" s="3"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C98" s="3"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C99" s="3"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C100" s="3"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C101" s="3"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C103" s="3"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C104" s="3"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C105" s="3"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
+      <c r="B106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="3"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C108" s="3"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C109" s="3"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C110" s="3"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C111" s="3"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C112" s="3"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C113" s="3"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C114" s="3"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B115" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C115" s="3"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C116" s="3"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C117" s="3"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C118" s="3"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C119" s="3"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-    </row>
-    <row r="121" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C122" s="3"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C123" s="3"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B132" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B133" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C133" s="3"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B134" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C135" s="3"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
+      <c r="B139" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C140" s="3"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B141" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B142" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B143" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C143" s="3"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B144" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C144" s="3"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B145" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C145" s="3"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B146" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C146" s="3"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C147" s="3"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B148" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C148" s="3"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B149" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C149" s="3"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C150" s="3"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C151" s="3"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C152" s="3"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C153" s="3"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B154" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C154" s="3"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
+      <c r="B155" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C156" s="3"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B157" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C157" s="3"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C158" s="3"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C159" s="3"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
+      <c r="B160" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C161" s="3"/>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C162" s="3"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B163" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C163" s="3"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C164" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
     <mergeCell ref="E9:N9"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B25:C25"/>
